--- a/biology/Zoologie/Brasiliscincus_caissara/Brasiliscincus_caissara.xlsx
+++ b/biology/Zoologie/Brasiliscincus_caissara/Brasiliscincus_caissara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brasiliscincus caissara est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brasiliscincus caissara est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'île Ilhabela dans l'État de São Paulo au Brésil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'île Ilhabela dans l'État de São Paulo au Brésil.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un saurien vivipare[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un saurien vivipare.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Reboucas-Spieker, 1974 : Distribution and differentiation of animals along the coast and in continental islands of the state of São Paulo, Brasil. 2. Lizards of the genus Mabuya (Sauria, Scincidae). Papéis Avulsos de Zoologia, vol. 28, p. 197-240.</t>
         </is>
